--- a/spliced/falling/2023-03-21_15-34-18/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-18/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1436797380447386</v>
+        <v>0.3787193298339841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7403357923030853</v>
+        <v>0.750096321105957</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.325827866792679</v>
+        <v>-2.375997304916381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0930042341351509</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3640756905078888</v>
+        <v>0.1044579595327377</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06383541971445079</v>
+        <v>-0.295353353023529</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.716686248779299</v>
+        <v>0.1436797380447386</v>
       </c>
       <c r="D3" t="n">
-        <v>1.053612291812897</v>
+        <v>0.7403357923030853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4070562124252333</v>
+        <v>-1.325827866792679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5752823352813721</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5053382515907288</v>
+        <v>0.3640756905078888</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.007177666760981</v>
+        <v>-0.06383541971445079</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.969705402851109</v>
+        <v>-1.716686248779299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09983259439468162</v>
+        <v>1.053612291812897</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9274015724658967</v>
+        <v>0.4070562124252333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5288565754890442</v>
+        <v>0.5752823352813721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7619016766548157</v>
+        <v>0.5053382515907288</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2580905556678772</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.239097833633425</v>
+        <v>-3.969705402851109</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5959589481353762</v>
+        <v>0.09983259439468162</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1143757104873694</v>
+        <v>0.9274015724658967</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7357872128486633</v>
+        <v>0.5288565754890442</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0797179117798805</v>
+        <v>0.7619016766548157</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8136724829673767</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.036354780197156</v>
+        <v>-5.239097833633425</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2977316975593562</v>
+        <v>-0.5959589481353762</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.156379550695419</v>
+        <v>-0.1143757104873694</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.146135926246643</v>
+        <v>-0.7357872128486633</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6188064813613892</v>
+        <v>-0.0797179117798805</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1640173196792602</v>
+        <v>0.8136724829673767</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.741946458816498</v>
+        <v>2.036354780197156</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.677600264549274</v>
+        <v>-0.2977316975593562</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.871290028095274</v>
+        <v>-1.156379550695419</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8213083148002625</v>
+        <v>-1.146135926246643</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.046079635620117</v>
+        <v>-0.6188064813613892</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09803032875061</v>
+        <v>-0.1640173196792602</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-18.10554087162019</v>
+        <v>5.741946458816498</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.49406802654266</v>
+        <v>-4.677600264549274</v>
       </c>
       <c r="E8" t="n">
-        <v>-29.53683829307556</v>
+        <v>-8.871290028095274</v>
       </c>
       <c r="F8" t="n">
-        <v>1.518305540084839</v>
+        <v>0.8213083148002625</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5958990454673767</v>
+        <v>-3.046079635620117</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1006400510668754</v>
+        <v>1.09803032875061</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.688319206237781</v>
+        <v>-18.10554087162019</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.673514366149895</v>
+        <v>-17.49406802654266</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.34325218200682</v>
+        <v>-29.53683829307556</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9292787313461304</v>
+        <v>1.518305540084839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0415388382971286</v>
+        <v>-0.5958990454673767</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.335643291473389</v>
+        <v>0.1006400510668754</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.507262408733383</v>
+        <v>1.688319206237781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2684899270534595</v>
+        <v>-2.673514366149895</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.699394106864903</v>
+        <v>-12.34325218200682</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500841736793518</v>
+        <v>-0.9292787313461304</v>
       </c>
       <c r="G10" t="n">
-        <v>1.703092336654663</v>
+        <v>0.0415388382971286</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4928155243396759</v>
+        <v>-2.335643291473389</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.7152169942855791</v>
+        <v>-3.507262408733383</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4368197321891781</v>
+        <v>0.2684899270534595</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5279676914215112</v>
+        <v>-2.699394106864903</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2722931802272796</v>
+        <v>0.5500841736793518</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3020728528499603</v>
+        <v>1.703092336654663</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.4928155243396759</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.77803122997284</v>
+        <v>-0.7152169942855791</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2878375947475432</v>
+        <v>0.4368197321891781</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8067402243614243</v>
+        <v>0.5279676914215112</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6982190012931824</v>
+        <v>0.2722931802272796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4492913782596588</v>
+        <v>-0.3020728528499603</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5900958180427551</v>
+        <v>0.2756529450416565</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.02435183525085627</v>
+        <v>0.77803122997284</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3931519985198989</v>
+        <v>0.2878375947475432</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.55875074863434</v>
+        <v>-0.8067402243614243</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4308127164840698</v>
+        <v>-0.6982190012931824</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22447943687439</v>
+        <v>0.4492913782596588</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.319024384021759</v>
+        <v>-0.5900958180427551</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.2728092074394176</v>
+        <v>-0.02435183525085627</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8767854124307625</v>
+        <v>-0.3931519985198989</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.626779749989506</v>
+        <v>-2.55875074863434</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0684169083833694</v>
+        <v>-0.4308127164840698</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4977024495601654</v>
+        <v>1.22447943687439</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0363464802503585</v>
+        <v>-0.319024384021759</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.066039085388185</v>
+        <v>-0.2728092074394176</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5432969331741325</v>
+        <v>-0.8767854124307625</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.81298840045929</v>
+        <v>-2.626779749989506</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1298088580369949</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0172569435089826</v>
+        <v>0.4977024495601654</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1985312104225158</v>
+        <v>-0.0363464802503585</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.15899240970611</v>
+        <v>1.066039085388185</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2723855525255186</v>
+        <v>-0.5432969331741325</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.873978555202483</v>
+        <v>-1.81298840045929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0598647929728031</v>
+        <v>-0.1298088580369949</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5253441333770752</v>
+        <v>0.0172569435089826</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0415388382971286</v>
+        <v>0.1985312104225158</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3004360198974618</v>
+        <v>1.15899240970611</v>
       </c>
       <c r="D17" t="n">
-        <v>0.163273096084592</v>
+        <v>-0.2723855525255186</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.427715420722963</v>
+        <v>-1.873978555202483</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1009454801678657</v>
+        <v>0.0598647929728031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2724458873271942</v>
+        <v>0.5253441333770752</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4051563739776611</v>
+        <v>-0.0415388382971286</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.5053797960281373</v>
+        <v>-0.3004360198974618</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4524855315685276</v>
+        <v>0.163273096084592</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.996987149119378</v>
+        <v>-1.427715420722963</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0010690141934901</v>
+        <v>-0.1009454801678657</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1505782902240753</v>
+        <v>0.2724458873271942</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0145080499351024</v>
+        <v>-0.4051563739776611</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1984210014343271</v>
+        <v>-0.5053797960281373</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3136261999607083</v>
+        <v>-0.4524855315685276</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.604727536439895</v>
+        <v>-1.996987149119378</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1108720451593399</v>
+        <v>-0.0010690141934901</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0652098655700683</v>
+        <v>-0.1505782902240753</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.131183311343193</v>
+        <v>0.0145080499351024</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1348390579223627</v>
+        <v>0.1984210014343271</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3085210472345353</v>
+        <v>-0.3136261999607083</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.704802349209786</v>
+        <v>-1.604727536439895</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0563523173332214</v>
+        <v>-0.1108720451593399</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0316122770309448</v>
+        <v>0.0652098655700683</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1798998117446899</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.11956262588501</v>
+        <v>0.1348390579223627</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3192775845527647</v>
+        <v>-0.3085210472345353</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.924065947532654</v>
+        <v>-1.704802349209786</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0160352122038602</v>
+        <v>0.0563523173332214</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0537561401724815</v>
+        <v>0.0316122770309448</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0355829000473022</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.04362952709197906</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.3616583049297337</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.960778713226318</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0247400421649217</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0786489024758338</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0580321997404098</v>
+        <v>0.1798998117446899</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-18/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-18/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3787193298339841</v>
+        <v>0.1436797380447386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.750096321105957</v>
+        <v>0.7403357923030853</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.375997304916381</v>
+        <v>-1.325827866792679</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0930042341351509</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1044579595327377</v>
+        <v>0.3640756905078888</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.295353353023529</v>
+        <v>-0.06383541971445079</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1436797380447386</v>
+        <v>-1.716686248779299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7403357923030853</v>
+        <v>1.053612291812897</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.325827866792679</v>
+        <v>0.4070562124252333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0355829000473022</v>
+        <v>0.5752823352813721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3640756905078888</v>
+        <v>0.5053382515907288</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.06383541971445079</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.716686248779299</v>
+        <v>-3.969705402851109</v>
       </c>
       <c r="D4" t="n">
-        <v>1.053612291812897</v>
+        <v>0.09983259439468162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4070562124252333</v>
+        <v>0.9274015724658967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5752823352813721</v>
+        <v>0.5288565754890442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5053382515907288</v>
+        <v>0.7619016766548157</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.007177666760981</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.969705402851109</v>
+        <v>-5.239097833633425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09983259439468162</v>
+        <v>-0.5959589481353762</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9274015724658967</v>
+        <v>-0.1143757104873694</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5288565754890442</v>
+        <v>-0.7357872128486633</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7619016766548157</v>
+        <v>-0.0797179117798805</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2580905556678772</v>
+        <v>0.8136724829673767</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.239097833633425</v>
+        <v>2.036354780197156</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5959589481353762</v>
+        <v>-0.2977316975593562</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1143757104873694</v>
+        <v>-1.156379550695419</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7357872128486633</v>
+        <v>-1.146135926246643</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0797179117798805</v>
+        <v>-0.6188064813613892</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8136724829673767</v>
+        <v>-0.1640173196792602</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.036354780197156</v>
+        <v>5.741946458816498</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2977316975593562</v>
+        <v>-4.677600264549274</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.156379550695419</v>
+        <v>-8.871290028095274</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.146135926246643</v>
+        <v>0.8213083148002625</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6188064813613892</v>
+        <v>-3.046079635620117</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1640173196792602</v>
+        <v>1.09803032875061</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.741946458816498</v>
+        <v>-18.10554087162019</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.677600264549274</v>
+        <v>-17.49406802654266</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.871290028095274</v>
+        <v>-29.53683829307556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8213083148002625</v>
+        <v>1.518305540084839</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.046079635620117</v>
+        <v>-0.5958990454673767</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09803032875061</v>
+        <v>0.1006400510668754</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-18.10554087162019</v>
+        <v>1.688319206237781</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.49406802654266</v>
+        <v>-2.673514366149895</v>
       </c>
       <c r="E9" t="n">
-        <v>-29.53683829307556</v>
+        <v>-12.34325218200682</v>
       </c>
       <c r="F9" t="n">
-        <v>1.518305540084839</v>
+        <v>-0.9292787313461304</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5958990454673767</v>
+        <v>0.0415388382971286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1006400510668754</v>
+        <v>-2.335643291473389</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.688319206237781</v>
+        <v>-3.507262408733383</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.673514366149895</v>
+        <v>0.2684899270534595</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.34325218200682</v>
+        <v>-2.699394106864903</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9292787313461304</v>
+        <v>0.5500841736793518</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0415388382971286</v>
+        <v>1.703092336654663</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.335643291473389</v>
+        <v>-0.4928155243396759</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.507262408733383</v>
+        <v>-0.7152169942855791</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2684899270534595</v>
+        <v>0.4368197321891781</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.699394106864903</v>
+        <v>0.5279676914215112</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5500841736793518</v>
+        <v>0.2722931802272796</v>
       </c>
       <c r="G11" t="n">
-        <v>1.703092336654663</v>
+        <v>-0.3020728528499603</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4928155243396759</v>
+        <v>0.2756529450416565</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.7152169942855791</v>
+        <v>0.77803122997284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4368197321891781</v>
+        <v>0.2878375947475432</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5279676914215112</v>
+        <v>-0.8067402243614243</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2722931802272796</v>
+        <v>-0.6982190012931824</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3020728528499603</v>
+        <v>0.4492913782596588</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.5900958180427551</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.77803122997284</v>
+        <v>-0.02435183525085627</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2878375947475432</v>
+        <v>-0.3931519985198989</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8067402243614243</v>
+        <v>-2.55875074863434</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6982190012931824</v>
+        <v>-0.4308127164840698</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4492913782596588</v>
+        <v>1.22447943687439</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5900958180427551</v>
+        <v>-0.319024384021759</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02435183525085627</v>
+        <v>-0.2728092074394176</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3931519985198989</v>
+        <v>-0.8767854124307625</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.55875074863434</v>
+        <v>-2.626779749989506</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4308127164840698</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="G14" t="n">
-        <v>1.22447943687439</v>
+        <v>0.4977024495601654</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.319024384021759</v>
+        <v>-0.0363464802503585</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.2728092074394176</v>
+        <v>1.066039085388185</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8767854124307625</v>
+        <v>-0.5432969331741325</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.626779749989506</v>
+        <v>-1.81298840045929</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0684169083833694</v>
+        <v>-0.1298088580369949</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4977024495601654</v>
+        <v>0.0172569435089826</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0363464802503585</v>
+        <v>0.1985312104225158</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.066039085388185</v>
+        <v>1.15899240970611</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5432969331741325</v>
+        <v>-0.2723855525255186</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.81298840045929</v>
+        <v>-1.873978555202483</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1298088580369949</v>
+        <v>0.0598647929728031</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0172569435089826</v>
+        <v>0.5253441333770752</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1985312104225158</v>
+        <v>-0.0415388382971286</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.15899240970611</v>
+        <v>-0.3004360198974618</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2723855525255186</v>
+        <v>0.163273096084592</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.873978555202483</v>
+        <v>-1.427715420722963</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0598647929728031</v>
+        <v>-0.1009454801678657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5253441333770752</v>
+        <v>0.2724458873271942</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0415388382971286</v>
+        <v>-0.4051563739776611</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.3004360198974618</v>
+        <v>-0.5053797960281373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.163273096084592</v>
+        <v>-0.4524855315685276</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.427715420722963</v>
+        <v>-1.996987149119378</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1009454801678657</v>
+        <v>-0.0010690141934901</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2724458873271942</v>
+        <v>-0.1505782902240753</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4051563739776611</v>
+        <v>0.0145080499351024</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.5053797960281373</v>
+        <v>0.1984210014343271</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4524855315685276</v>
+        <v>-0.3136261999607083</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.996987149119378</v>
+        <v>-1.604727536439895</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0010690141934901</v>
+        <v>-0.1108720451593399</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1505782902240753</v>
+        <v>0.0652098655700683</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0145080499351024</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1984210014343271</v>
+        <v>0.1348390579223627</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3136261999607083</v>
+        <v>-0.3085210472345353</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.604727536439895</v>
+        <v>-1.704802349209786</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1108720451593399</v>
+        <v>0.0563523173332214</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0652098655700683</v>
+        <v>0.0316122770309448</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.131183311343193</v>
+        <v>0.1798998117446899</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1348390579223627</v>
+        <v>-0.11956262588501</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3085210472345353</v>
+        <v>-0.3192775845527647</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.704802349209786</v>
+        <v>-1.924065947532654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0563523173332214</v>
+        <v>-0.0160352122038602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0316122770309448</v>
+        <v>0.0537561401724815</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1798998117446899</v>
+        <v>-0.0355829000473022</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-18/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-18/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1436797380447386</v>
+        <v>-1.238285183906555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7403357923030853</v>
+        <v>0.4941155612468719</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.325827866792679</v>
+        <v>-1.145785808563232</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.1621847152709961</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3640756905078888</v>
+        <v>-0.07956519722938531</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06383541971445079</v>
+        <v>-0.5577199459075928</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.716686248779299</v>
+        <v>0.3425590991973889</v>
       </c>
       <c r="D3" t="n">
-        <v>1.053612291812897</v>
+        <v>0.401696681976318</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4070562124252333</v>
+        <v>-1.307540893554688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5752823352813721</v>
+        <v>-0.1879937797784805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5053382515907288</v>
+        <v>-0.1305724531412124</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.007177666760981</v>
+        <v>-0.08170322328805921</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.969705402851109</v>
+        <v>1.148096084594726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09983259439468162</v>
+        <v>0.2248815298080447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9274015724658967</v>
+        <v>-1.84254863858223</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5288565754890442</v>
+        <v>-0.0765108689665794</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7619016766548157</v>
+        <v>-0.2229658216238021</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2580905556678772</v>
+        <v>-0.0765108689665794</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.239097833633425</v>
+        <v>0.3787193298339841</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5959589481353762</v>
+        <v>0.750096321105957</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1143757104873694</v>
+        <v>-2.375997304916381</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7357872128486633</v>
+        <v>-0.0930042341351509</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0797179117798805</v>
+        <v>0.1044579595327377</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8136724829673767</v>
+        <v>-0.295353353023529</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.036354780197156</v>
+        <v>0.1436797380447386</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2977316975593562</v>
+        <v>0.7403357923030853</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.156379550695419</v>
+        <v>-1.325827866792679</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.146135926246643</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6188064813613892</v>
+        <v>0.3640756905078888</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1640173196792602</v>
+        <v>-0.06383541971445079</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.741946458816498</v>
+        <v>-1.716686248779299</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.677600264549274</v>
+        <v>1.053612291812897</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.871290028095274</v>
+        <v>0.4070562124252333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8213083148002625</v>
+        <v>0.5752823352813721</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.046079635620117</v>
+        <v>0.5053382515907288</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09803032875061</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-18.10554087162019</v>
+        <v>-3.969705402851109</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.49406802654266</v>
+        <v>0.09983259439468162</v>
       </c>
       <c r="E8" t="n">
-        <v>-29.53683829307556</v>
+        <v>0.9274015724658967</v>
       </c>
       <c r="F8" t="n">
-        <v>1.518305540084839</v>
+        <v>0.5288565754890442</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5958990454673767</v>
+        <v>0.7619016766548157</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1006400510668754</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.688319206237781</v>
+        <v>-5.239097833633425</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.673514366149895</v>
+        <v>-0.5959589481353762</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.34325218200682</v>
+        <v>-0.1143757104873694</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9292787313461304</v>
+        <v>-0.7357872128486633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0415388382971286</v>
+        <v>-0.0797179117798805</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.335643291473389</v>
+        <v>0.8136724829673767</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.507262408733383</v>
+        <v>2.036354780197156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2684899270534595</v>
+        <v>-0.2977316975593562</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.699394106864903</v>
+        <v>-1.156379550695419</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500841736793518</v>
+        <v>-1.146135926246643</v>
       </c>
       <c r="G10" t="n">
-        <v>1.703092336654663</v>
+        <v>-0.6188064813613892</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4928155243396759</v>
+        <v>-0.1640173196792602</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.7152169942855791</v>
+        <v>5.741946458816498</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4368197321891781</v>
+        <v>-4.677600264549274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5279676914215112</v>
+        <v>-8.871290028095274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2722931802272796</v>
+        <v>0.8213083148002625</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3020728528499603</v>
+        <v>-3.046079635620117</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2756529450416565</v>
+        <v>1.09803032875061</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.77803122997284</v>
+        <v>-18.10554087162019</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2878375947475432</v>
+        <v>-17.49406802654266</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8067402243614243</v>
+        <v>-29.53683829307556</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6982190012931824</v>
+        <v>1.518305540084839</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4492913782596588</v>
+        <v>-0.5958990454673767</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5900958180427551</v>
+        <v>0.1006400510668754</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.02435183525085627</v>
+        <v>1.688319206237781</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3931519985198989</v>
+        <v>-2.673514366149895</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.55875074863434</v>
+        <v>-12.34325218200682</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4308127164840698</v>
+        <v>-0.9292787313461304</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22447943687439</v>
+        <v>0.0415388382971286</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.319024384021759</v>
+        <v>-2.335643291473389</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.2728092074394176</v>
+        <v>-3.507262408733383</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8767854124307625</v>
+        <v>0.2684899270534595</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.626779749989506</v>
+        <v>-2.699394106864903</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0684169083833694</v>
+        <v>0.5500841736793518</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4977024495601654</v>
+        <v>1.703092336654663</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0363464802503585</v>
+        <v>-0.4928155243396759</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.066039085388185</v>
+        <v>-0.7152169942855791</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5432969331741325</v>
+        <v>0.4368197321891781</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.81298840045929</v>
+        <v>0.5279676914215112</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1298088580369949</v>
+        <v>0.2722931802272796</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0172569435089826</v>
+        <v>-0.3020728528499603</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1985312104225158</v>
+        <v>0.2756529450416565</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.15899240970611</v>
+        <v>0.77803122997284</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2723855525255186</v>
+        <v>0.2878375947475432</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.873978555202483</v>
+        <v>-0.8067402243614243</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0598647929728031</v>
+        <v>-0.6982190012931824</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5253441333770752</v>
+        <v>0.4492913782596588</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0415388382971286</v>
+        <v>-0.5900958180427551</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3004360198974618</v>
+        <v>-0.02435183525085627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.163273096084592</v>
+        <v>-0.3931519985198989</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.427715420722963</v>
+        <v>-2.55875074863434</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1009454801678657</v>
+        <v>-0.4308127164840698</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2724458873271942</v>
+        <v>1.22447943687439</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4051563739776611</v>
+        <v>-0.319024384021759</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.5053797960281373</v>
+        <v>-0.2728092074394176</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4524855315685276</v>
+        <v>-0.8767854124307625</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.996987149119378</v>
+        <v>-2.626779749989506</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0010690141934901</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1505782902240753</v>
+        <v>0.4977024495601654</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0145080499351024</v>
+        <v>-0.0363464802503585</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1984210014343271</v>
+        <v>1.066039085388185</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3136261999607083</v>
+        <v>-0.5432969331741325</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.604727536439895</v>
+        <v>-1.81298840045929</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1108720451593399</v>
+        <v>-0.1298088580369949</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0652098655700683</v>
+        <v>0.0172569435089826</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.131183311343193</v>
+        <v>0.1985312104225158</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1348390579223627</v>
+        <v>1.15899240970611</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3085210472345353</v>
+        <v>-0.2723855525255186</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.704802349209786</v>
+        <v>-1.873978555202483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0563523173332214</v>
+        <v>0.0598647929728031</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0316122770309448</v>
+        <v>0.5253441333770752</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1798998117446899</v>
+        <v>-0.0415388382971286</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.3004360198974618</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.163273096084592</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.427715420722963</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1009454801678657</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2724458873271942</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4051563739776611</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5053797960281373</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.4524855315685276</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.996987149119378</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0010690141934901</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1505782902240753</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0145080499351024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1984210014343271</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.3136261999607083</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.604727536439895</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1108720451593399</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0652098655700683</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.131183311343193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1348390579223627</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.3085210472345353</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.704802349209786</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0563523173332214</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0316122770309448</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1798998117446899</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>-0.11956262588501</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>-0.3192775845527647</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>-1.924065947532654</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>-0.0160352122038602</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>0.0537561401724815</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>-0.0355829000473022</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.04362952709197906</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.3616583049297337</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.960778713226318</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0247400421649217</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0786489024758338</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.0580321997404098</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.191988468170166</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.4578718543052673</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.877070605754853</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.026419922709465</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0665843114256858</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.07590000331401819</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1683353185653686</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.3762182295322418</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.764573842287064</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0235183127224445</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.012980886735022</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0116064399480819</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1497325897216795</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.3715704679489131</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.762347698211669</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.009315694682300001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0103847095742821</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0035124751739203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0995370149612424</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.2668604403734202</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.60942207276821</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0279470849782228</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0250454749912023</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.00335975876078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02663779258727977</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2185956239700315</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.59472194314003</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0271835029125213</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0594066455960273</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0343611687421798</v>
       </c>
     </row>
   </sheetData>
